--- a/analysis/transient/xlsx/resized_transient_017.xlsx
+++ b/analysis/transient/xlsx/resized_transient_017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wronek\Documents\1) Università\Magistrale\Anno 2022-2023\Semestre 2\PMCSN\Project\analysis\transient\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wronek\Documents\1 - Università\Magistrale\Anno 2022-2023\Semestre 2\PMCSN\Project\analysis\transient\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA023BC5-01F0-4E0F-A1B0-ADF280B37B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D96038-8211-4514-BD34-DDE682A34C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2415" windowWidth="28665" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2415" windowWidth="38400" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_transient_017" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
-    <t>Based on 200 simulations and with 99.00% confidence</t>
-  </si>
-  <si>
     <t>NODE 1</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Average max response time:</t>
+  </si>
+  <si>
+    <t>Based on 64 simulations and with 95.00% confidence</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,6 +570,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -929,7 +932,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D43"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,131 +946,131 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.52640200000000004</v>
+        <v>0.52643300000000004</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>2.3800000000000001E-4</v>
+        <v>3.3599999999999998E-4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>2.7974039999999998</v>
+        <v>2.7959870000000002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>5.4590000000000003E-3</v>
+        <v>7.3680000000000004E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0.79791500000000004</v>
+        <v>0.79675499999999999</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>4.9509999999999997E-3</v>
+        <v>6.6470000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>1.9994890000000001</v>
+        <v>1.9992319999999999</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>8.5999999999999998E-4</v>
+        <v>1.248E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>5.3134480000000002</v>
+        <v>5.310511</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>1.1479E-2</v>
+        <v>1.5446E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>1.5156130000000001</v>
+        <v>1.5133369999999999</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>9.7079999999999996E-3</v>
+        <v>1.3006E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>0.75956699999999999</v>
+        <v>0.75943499999999997</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>4.66E-4</v>
+        <v>6.69E-4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1075,122 +1078,122 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.84748599999999996</v>
+        <v>0.84750999999999999</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>5.2899999999999996E-4</v>
+        <v>7.3399999999999995E-4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>3.5353940000000001</v>
+        <v>3.540006</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>3.7810000000000001E-3</v>
+        <v>5.058E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
-        <v>0.33562199999999998</v>
+        <v>0.338115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>2.653E-3</v>
+        <v>3.4710000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>3.1997719999999998</v>
+        <v>3.2018909999999998</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>1.8259999999999999E-3</v>
+        <v>2.6919999999999999E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
-        <v>4.1711609999999997</v>
+        <v>4.1765400000000001</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>5.7629999999999999E-3</v>
+        <v>7.9719999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
-        <v>0.39599699999999999</v>
+        <v>0.39893400000000001</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>3.235E-3</v>
+        <v>4.2570000000000004E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>0.62919400000000003</v>
+        <v>0.62960099999999997</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>5.3399999999999997E-4</v>
+        <v>7.8700000000000005E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -1198,122 +1201,122 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>1.321269</v>
+        <v>1.321704</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>1.01E-3</v>
+        <v>1.4760000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>3.3941349999999999</v>
+        <v>3.3829750000000001</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>7.7029999999999998E-3</v>
+        <v>9.8329999999999997E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>0.89390099999999995</v>
+        <v>0.88562600000000002</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
-        <v>6.2690000000000003E-3</v>
+        <v>7.8639999999999995E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
-        <v>2.500235</v>
+        <v>2.4973489999999998</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1">
-        <v>1.9840000000000001E-3</v>
+        <v>2.6970000000000002E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1">
-        <v>2.5686990000000001</v>
+        <v>2.5594459999999999</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>6.7169999999999999E-3</v>
+        <v>9.0100000000000006E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1">
-        <v>0.67653799999999997</v>
+        <v>0.670072</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
-        <v>4.9610000000000001E-3</v>
+        <v>6.3449999999999999E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1">
-        <v>0.63071999999999995</v>
+        <v>0.62979099999999999</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1">
-        <v>7.1100000000000004E-4</v>
+        <v>1.023E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -1321,144 +1324,144 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.386492</v>
+        <v>0.38653999999999999</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>1.2799999999999999E-4</v>
+        <v>1.95E-4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1">
-        <v>2.1099990000000002</v>
+        <v>2.1085820000000002</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>2.088E-3</v>
+        <v>3.1519999999999999E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1">
-        <v>0.81009299999999995</v>
+        <v>0.80889800000000001</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>1.735E-3</v>
+        <v>2.516E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1">
-        <v>1.299906</v>
+        <v>1.2996840000000001</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>4.8700000000000002E-4</v>
+        <v>7.9699999999999997E-4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>5.4592700000000001</v>
+        <v>5.4549209999999997</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>5.8110000000000002E-3</v>
+        <v>8.6119999999999999E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1">
-        <v>2.095987</v>
+        <v>2.092632</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>4.6589999999999999E-3</v>
+        <v>6.7149999999999996E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1">
-        <v>0.84082100000000004</v>
+        <v>0.84057199999999999</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1">
-        <v>3.4699999999999998E-4</v>
+        <v>5.3700000000000004E-4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2">
-        <v>4.1453999999999998E-2</v>
+        <v>4.1416000000000001E-2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="2">
-        <v>1.9000000000000001E-4</v>
+        <v>2.5599999999999999E-4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1">
-        <v>11.8369</v>
+        <v>11.827500000000001</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.49E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
